--- a/PythonTest/ExcelTest/source/test.xlsx
+++ b/PythonTest/ExcelTest/source/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8555" activeTab="2"/>
+    <workbookView windowWidth="21000" windowHeight="8555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="test1" sheetId="1" r:id="rId1"/>
@@ -106,14 +106,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,12 +128,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -141,15 +164,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,15 +205,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,16 +226,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,33 +242,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,12 +258,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -271,174 +439,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,17 +461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,8 +473,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,16 +509,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -526,26 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,19 +569,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,112 +590,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,8 +1136,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1175,9 +1175,7 @@
       <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
-        <v>2</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
@@ -1202,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>

--- a/PythonTest/ExcelTest/source/test.xlsx
+++ b/PythonTest/ExcelTest/source/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>No</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>case3</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
   <si>
     <t>Age</t>
@@ -106,6 +112,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -113,9 +134,63 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,13 +202,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -141,69 +210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -220,7 +226,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,15 +234,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,6 +242,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,19 +264,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,163 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,6 +455,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,11 +526,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,62 +555,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -557,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,19 +575,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,112 +596,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,7 +1143,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1181,11 +1187,11 @@
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1218,27 +1224,27 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>43466</v>
@@ -1246,16 +1252,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>43467</v>
@@ -1263,16 +1269,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>43468</v>
